--- a/reopentable_05_10.xlsx
+++ b/reopentable_05_10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johntomczak/Documents/1Projects/Corona_DA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D24835-D6DE-F74B-A793-5F21397E9BF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E488109C-3492-6B4D-BCDF-6CD373AC31D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="940" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -303,9 +303,9 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -650,10 +650,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1011,260 +1012,270 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:CC45"/>
+    <sheetView tabSelected="1" topLeftCell="CC1" workbookViewId="0">
+      <selection activeCell="CF2" sqref="CF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="81" width="7" bestFit="1" customWidth="1"/>
-    <col min="82" max="84" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="82" max="83" width="6" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="3">
         <v>43879</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="3">
         <v>43880</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="3">
         <v>43881</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="3">
         <v>43882</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="3">
         <v>43883</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="3">
         <v>43884</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="3">
         <v>43885</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="3">
         <v>43886</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="3">
         <v>43887</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="3">
         <v>43888</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="3">
         <v>43889</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="3">
         <v>43890</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="3">
         <v>43891</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1" s="3">
         <v>43892</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="3">
         <v>43893</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q1" s="3">
         <v>43894</v>
       </c>
-      <c r="R1" s="2">
+      <c r="R1" s="3">
         <v>43895</v>
       </c>
-      <c r="S1" s="2">
+      <c r="S1" s="3">
         <v>43896</v>
       </c>
-      <c r="T1" s="2">
+      <c r="T1" s="3">
         <v>43897</v>
       </c>
-      <c r="U1" s="2">
+      <c r="U1" s="3">
         <v>43898</v>
       </c>
-      <c r="V1" s="2">
+      <c r="V1" s="3">
         <v>43899</v>
       </c>
-      <c r="W1" s="2">
+      <c r="W1" s="3">
         <v>43900</v>
       </c>
-      <c r="X1" s="2">
+      <c r="X1" s="3">
         <v>43901</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Y1" s="3">
         <v>43902</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="Z1" s="3">
         <v>43903</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AA1" s="3">
         <v>43904</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AB1" s="3">
         <v>43905</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AC1" s="3">
         <v>43906</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AD1" s="3">
         <v>43907</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AE1" s="3">
         <v>43908</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AF1" s="3">
         <v>43909</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AG1" s="3">
         <v>43910</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="AH1" s="3">
         <v>43911</v>
       </c>
-      <c r="AI1" s="2">
+      <c r="AI1" s="3">
         <v>43912</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AJ1" s="3">
         <v>43913</v>
       </c>
-      <c r="AK1" s="2">
+      <c r="AK1" s="3">
         <v>43914</v>
       </c>
-      <c r="AL1" s="2">
+      <c r="AL1" s="3">
         <v>43915</v>
       </c>
-      <c r="AM1" s="2">
+      <c r="AM1" s="3">
         <v>43916</v>
       </c>
-      <c r="AN1" s="2">
+      <c r="AN1" s="3">
         <v>43917</v>
       </c>
-      <c r="AO1" s="2">
+      <c r="AO1" s="3">
         <v>43918</v>
       </c>
-      <c r="AP1" s="2">
+      <c r="AP1" s="3">
         <v>43919</v>
       </c>
-      <c r="AQ1" s="2">
+      <c r="AQ1" s="3">
         <v>43920</v>
       </c>
-      <c r="AR1" s="2">
+      <c r="AR1" s="3">
         <v>43921</v>
       </c>
-      <c r="AS1" s="2">
+      <c r="AS1" s="3">
         <v>43922</v>
       </c>
-      <c r="AT1" s="2">
+      <c r="AT1" s="3">
         <v>43923</v>
       </c>
-      <c r="AU1" s="2">
+      <c r="AU1" s="3">
         <v>43924</v>
       </c>
-      <c r="AV1" s="2">
+      <c r="AV1" s="3">
         <v>43925</v>
       </c>
-      <c r="AW1" s="2">
+      <c r="AW1" s="3">
         <v>43926</v>
       </c>
-      <c r="AX1" s="2">
+      <c r="AX1" s="3">
         <v>43927</v>
       </c>
-      <c r="AY1" s="2">
+      <c r="AY1" s="3">
         <v>43928</v>
       </c>
-      <c r="AZ1" s="2">
+      <c r="AZ1" s="3">
         <v>43929</v>
       </c>
-      <c r="BA1" s="2">
+      <c r="BA1" s="3">
         <v>43930</v>
       </c>
-      <c r="BB1" s="2">
+      <c r="BB1" s="3">
         <v>43931</v>
       </c>
-      <c r="BC1" s="2">
+      <c r="BC1" s="3">
         <v>43932</v>
       </c>
-      <c r="BD1" s="2">
+      <c r="BD1" s="3">
         <v>43933</v>
       </c>
-      <c r="BE1" s="2">
+      <c r="BE1" s="3">
         <v>43934</v>
       </c>
-      <c r="BF1" s="2">
+      <c r="BF1" s="3">
         <v>43935</v>
       </c>
-      <c r="BG1" s="2">
+      <c r="BG1" s="3">
         <v>43936</v>
       </c>
-      <c r="BH1" s="2">
+      <c r="BH1" s="3">
         <v>43937</v>
       </c>
-      <c r="BI1" s="2">
+      <c r="BI1" s="3">
         <v>43938</v>
       </c>
-      <c r="BJ1" s="2">
+      <c r="BJ1" s="3">
         <v>43939</v>
       </c>
-      <c r="BK1" s="2">
+      <c r="BK1" s="3">
         <v>43940</v>
       </c>
-      <c r="BL1" s="2">
+      <c r="BL1" s="3">
         <v>43941</v>
       </c>
-      <c r="BM1" s="2">
+      <c r="BM1" s="3">
         <v>43942</v>
       </c>
-      <c r="BN1" s="2">
+      <c r="BN1" s="3">
         <v>43943</v>
       </c>
-      <c r="BO1" s="2">
+      <c r="BO1" s="3">
         <v>43944</v>
       </c>
-      <c r="BP1" s="2">
+      <c r="BP1" s="3">
         <v>43945</v>
       </c>
-      <c r="BQ1" s="2">
+      <c r="BQ1" s="3">
         <v>43946</v>
       </c>
-      <c r="BR1" s="2">
+      <c r="BR1" s="3">
         <v>43947</v>
       </c>
-      <c r="BS1" s="2">
+      <c r="BS1" s="3">
         <v>43948</v>
       </c>
-      <c r="BT1" s="2">
+      <c r="BT1" s="3">
         <v>43949</v>
       </c>
-      <c r="BU1" s="2">
+      <c r="BU1" s="3">
         <v>43950</v>
       </c>
-      <c r="BV1" s="2">
+      <c r="BV1" s="3">
         <v>43951</v>
       </c>
-      <c r="BW1" s="2">
+      <c r="BW1" s="3">
         <v>43952</v>
       </c>
-      <c r="BX1" s="2">
+      <c r="BX1" s="3">
         <v>43953</v>
       </c>
-      <c r="BY1" s="2">
+      <c r="BY1" s="3">
         <v>43954</v>
       </c>
-      <c r="BZ1" s="2">
+      <c r="BZ1" s="3">
         <v>43955</v>
       </c>
-      <c r="CA1" s="2">
+      <c r="CA1" s="3">
         <v>43956</v>
       </c>
-      <c r="CB1" s="2">
+      <c r="CB1" s="3">
         <v>43957</v>
       </c>
-      <c r="CC1" s="2">
+      <c r="CC1" s="3">
         <v>43958</v>
+      </c>
+      <c r="CD1" s="3">
+        <v>43959</v>
+      </c>
+      <c r="CE1" s="3">
+        <v>43960</v>
+      </c>
+      <c r="CF1" s="3">
+        <v>43961</v>
       </c>
     </row>
     <row r="2" spans="1:84" x14ac:dyDescent="0.2">
